--- a/cylinders_penalization/Table.xlsx
+++ b/cylinders_penalization/Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weugene/basilisk/work/cylinders_penalization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8998E0-29C1-C449-9972-6D4C0AA0434C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC9524B-7103-AD4B-9F6F-6CC508329B3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="4" xr2:uid="{93219D02-6594-2D47-8E78-035D3A577AA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{93219D02-6594-2D47-8E78-035D3A577AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="L=8" sheetId="1" r:id="rId1"/>
@@ -3355,13 +3355,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20859,7 +20859,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1975663865428592E-3"/>
+          <c:y val="3.2170472187634078E-3"/>
+          <c:w val="0.98629152407816245"/>
+          <c:h val="0.95843471686271875"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -27871,95 +27881,95 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-3" connectionId="8" xr16:uid="{38C15AF7-C455-4D41-8B1A-373561D2780E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-3" connectionId="9" xr16:uid="{F4D1F484-E0B8-4C44-AE8F-85E8B55FE9C2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-2" connectionId="6" xr16:uid="{A2EF6265-6797-244A-A6B8-39887B1358EB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-15" connectionId="2" xr16:uid="{E1761E8B-9528-1D40-93FF-3D5DE6FEA46C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-6" connectionId="22" xr16:uid="{AE5C0EF2-7698-D747-BCEB-9C5EA4251BB6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-5" connectionId="18" xr16:uid="{3F79E2D1-8292-8E4F-B92C-BF3D29EC9C14}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-4" connectionId="14" xr16:uid="{6E238100-9684-CD4A-9AD6-D27744BB84C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-3" connectionId="10" xr16:uid="{2E65FA83-B290-1546-B780-EEE6A5F59BC7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-2" connectionId="7" xr16:uid="{184D18BB-D5B7-7E42-A933-9D31E9648E02}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-15" connectionId="3" xr16:uid="{E68F96EC-20E0-5242-9549-B9314338C75F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-5" connectionId="19" xr16:uid="{FE3A949A-D295-B64B-8EA9-D29AF446E803}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-2" connectionId="5" xr16:uid="{AC6AC893-26D4-1345-95B3-364F75A93F9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-4" connectionId="15" xr16:uid="{D5CBA6E2-2EA1-6048-9952-F8ACBF73143F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-3" connectionId="11" xr16:uid="{DFA917D0-D793-884C-BB93-F68D5D497F62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-15" connectionId="4" xr16:uid="{B6F3DEA6-0843-8043-94F5-0FFB4EDB4E5E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-6" connectionId="23" xr16:uid="{594F2208-FBAD-1A40-928A-1FBD7565F12D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-15" connectionId="1" xr16:uid="{07F5185F-D49C-A949-AFF3-BA875ED34409}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-6" connectionId="20" xr16:uid="{F6CDC827-F66B-AB49-9A1B-B5ED71EE9887}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-5_1" connectionId="16" xr16:uid="{D7B8C1E2-78B6-6B40-85BF-930846ABE85C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-4_1" connectionId="12" xr16:uid="{F14F4C4B-8BBF-D045-AC84-B3021B04A636}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-6" connectionId="21" xr16:uid="{58F1BBCB-3EA5-7942-AD18-DCF62AE12E19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-5" connectionId="17" xr16:uid="{D8B81DBB-E1C3-A04D-943E-773D708168BF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-4" connectionId="13" xr16:uid="{20E242E1-FD0C-E345-8306-CB099B164288}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-3" connectionId="10" xr16:uid="{2E65FA83-B290-1546-B780-EEE6A5F59BC7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-2" connectionId="7" xr16:uid="{184D18BB-D5B7-7E42-A933-9D31E9648E02}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-15" connectionId="3" xr16:uid="{E68F96EC-20E0-5242-9549-B9314338C75F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-6" connectionId="22" xr16:uid="{AE5C0EF2-7698-D747-BCEB-9C5EA4251BB6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-5" connectionId="18" xr16:uid="{3F79E2D1-8292-8E4F-B92C-BF3D29EC9C14}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-4" connectionId="14" xr16:uid="{6E238100-9684-CD4A-9AD6-D27744BB84C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-4" connectionId="15" xr16:uid="{D5CBA6E2-2EA1-6048-9952-F8ACBF73143F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-5_1" connectionId="16" xr16:uid="{D7B8C1E2-78B6-6B40-85BF-930846ABE85C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-3" connectionId="11" xr16:uid="{DFA917D0-D793-884C-BB93-F68D5D497F62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-15" connectionId="4" xr16:uid="{B6F3DEA6-0843-8043-94F5-0FFB4EDB4E5E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-6" connectionId="23" xr16:uid="{594F2208-FBAD-1A40-928A-1FBD7565F12D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-5" connectionId="19" xr16:uid="{FE3A949A-D295-B64B-8EA9-D29AF446E803}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-4_1" connectionId="12" xr16:uid="{F14F4C4B-8BBF-D045-AC84-B3021B04A636}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-3" connectionId="8" xr16:uid="{38C15AF7-C455-4D41-8B1A-373561D2780E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-2" connectionId="5" xr16:uid="{AC6AC893-26D4-1345-95B3-364F75A93F9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-15" connectionId="1" xr16:uid="{07F5185F-D49C-A949-AFF3-BA875ED34409}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-3" connectionId="9" xr16:uid="{F4D1F484-E0B8-4C44-AE8F-85E8B55FE9C2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-2" connectionId="6" xr16:uid="{A2EF6265-6797-244A-A6B8-39887B1358EB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="log_1e-15" connectionId="2" xr16:uid="{E1761E8B-9528-1D40-93FF-3D5DE6FEA46C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42380,8 +42390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D736E3-F446-4D4E-9E81-01C31ED80524}">
   <dimension ref="B2:AC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ257" zoomScale="59" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="AZ320" sqref="AZ320"/>
+    <sheetView tabSelected="1" topLeftCell="AA196" zoomScale="37" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="Y238" sqref="Y238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42397,38 +42407,38 @@
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>922</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>923</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14" t="s">
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
@@ -44033,32 +44043,32 @@
       </c>
     </row>
     <row r="31" spans="3:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="13" t="s">
         <v>926</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
     </row>
     <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D32" s="12">
@@ -45086,13 +45096,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="X32:AA32"/>
-    <mergeCell ref="D31:AA31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="T32:W32"/>
     <mergeCell ref="X19:AA19"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:O4"/>
@@ -45103,6 +45106,13 @@
     <mergeCell ref="L19:O19"/>
     <mergeCell ref="P19:S19"/>
     <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X32:AA32"/>
+    <mergeCell ref="D31:AA31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="T32:W32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45126,38 +45136,38 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>922</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>923</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
